--- a/uncovered_bugs/unconvered_bugs.xlsx
+++ b/uncovered_bugs/unconvered_bugs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rush\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\DSL25_artifacts\repo4\uncovered_bugs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$103</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="196">
   <si>
     <t>Status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -591,6 +594,30 @@
   </si>
   <si>
     <t>https://godbolt.org/z/s1d9ze1xq</t>
+  </si>
+  <si>
+    <t>duplicate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duplicate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duplicate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1074,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1146,7 +1173,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>2</v>
+        <v>193</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>96</v>
@@ -1190,7 +1217,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>100</v>
@@ -1289,7 +1316,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>109</v>
@@ -1366,7 +1393,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>2</v>
+        <v>193</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>116</v>
@@ -1377,7 +1404,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>2</v>
+        <v>194</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>117</v>
@@ -1399,7 +1426,7 @@
         <v>12</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>118</v>
@@ -1432,7 +1459,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>1</v>
+        <v>191</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>121</v>
@@ -1454,7 +1481,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>123</v>
@@ -1520,7 +1547,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>2</v>
+        <v>193</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>129</v>
@@ -1542,7 +1569,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>132</v>
@@ -1575,7 +1602,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>135</v>
@@ -1597,7 +1624,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>2</v>
+        <v>194</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>137</v>
@@ -1696,7 +1723,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>2</v>
+        <v>194</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>146</v>
@@ -1751,7 +1778,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>2</v>
+        <v>193</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>150</v>
@@ -1784,7 +1811,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>2</v>
+        <v>193</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>153</v>
@@ -1828,7 +1855,7 @@
         <v>13</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>157</v>
@@ -1839,7 +1866,7 @@
         <v>65</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>2</v>
+        <v>193</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>158</v>
@@ -1960,7 +1987,7 @@
         <v>48</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>168</v>
@@ -1971,7 +1998,7 @@
         <v>74</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>169</v>
@@ -1982,7 +2009,7 @@
         <v>75</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>170</v>
@@ -2026,7 +2053,7 @@
         <v>40</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>174</v>
@@ -2213,7 +2240,7 @@
         <v>91</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>161</v>
